--- a/biology/Zoologie/Arctocephalus/Arctocephalus.xlsx
+++ b/biology/Zoologie/Arctocephalus/Arctocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctocephalus est un genre de mammifères de la famille des Otariidae (Otariidés) qui se distinguent des autres otaries en particulier par leur pelage plus fourni.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Arctocephalus, constitué de deux mots grecs, άρκτος (arktos), qui signifie ours, et κεφαλή (kephale) signifiant tête, peut se traduire par « qui a une tête d'ours ».
 </t>
@@ -542,7 +556,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme générique français otarie s’applique à la fois au genre Arctocephalus et au genre Zalophus qui appartiennent tous deux à la famille des Otariidae (Otariidés), mais la traduction d’Arctocephalus la plus courante en français est Otarie à fourrure, en raison de son aspect extérieur. On utilise aussi parfois la traduction stricte du nom scientifique, Arctocéphale, qui suffit à différencier ce genre. L’anglais désigne ce genre du nom de fur seal (phoque à fourrure). En espagnol on rencontre oso marino (ours de mer), arctofoca (arctophoque), lobo peletero (loup à fourrure), lobo marino (loup de mer).
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce genre comprend les huit espèces suivantes d'otaries :
 Arctocephalus australis — Otarie à fourrure australe ;
@@ -584,7 +602,7 @@
 Arctocephalus pusillus – Otarie à fourrure d'Afrique du Sud ;
 Arctocephalus townsendi – Otarie de l'île de Guadalupe ;
 Arctocephalus tropicalis – Otarie à fourrure subantarctique.
-Arctocephalus fischeri — espèce disparue[1].</t>
+Arctocephalus fischeri — espèce disparue.</t>
         </is>
       </c>
     </row>
